--- a/docs/reference/motor_trend_car_road_tests.xlsx
+++ b/docs/reference/motor_trend_car_road_tests.xlsx
@@ -39,7 +39,7 @@
     <t xml:space="preserve">http://www.statistik.zh.ch</t>
   </si>
   <si>
-    <t xml:space="preserve">Aktualisiert am  28.05.2021  durch:  lr</t>
+    <t xml:space="preserve">Aktualisiert am  01.06.2021  durch:  04</t>
   </si>
   <si>
     <t xml:space="preserve">mpg  </t>

--- a/docs/reference/motor_trend_car_road_tests.xlsx
+++ b/docs/reference/motor_trend_car_road_tests.xlsx
@@ -39,7 +39,7 @@
     <t xml:space="preserve">http://www.statistik.zh.ch</t>
   </si>
   <si>
-    <t xml:space="preserve">Aktualisiert am  01.06.2021  durch:  04</t>
+    <t xml:space="preserve">Aktualisiert am  04.06.2021  durch:  04</t>
   </si>
   <si>
     <t xml:space="preserve">mpg  </t>

--- a/docs/reference/motor_trend_car_road_tests.xlsx
+++ b/docs/reference/motor_trend_car_road_tests.xlsx
@@ -39,7 +39,7 @@
     <t xml:space="preserve">http://www.statistik.zh.ch</t>
   </si>
   <si>
-    <t xml:space="preserve">Aktualisiert am  04.06.2021  durch:  04</t>
+    <t xml:space="preserve">Aktualisiert am  29.09.2021  durch:  04</t>
   </si>
   <si>
     <t xml:space="preserve">mpg  </t>

--- a/docs/reference/motor_trend_car_road_tests.xlsx
+++ b/docs/reference/motor_trend_car_road_tests.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="8" sheetId="3" state="visible" r:id="rId3"/>
@@ -39,7 +39,7 @@
     <t xml:space="preserve">http://www.statistik.zh.ch</t>
   </si>
   <si>
-    <t xml:space="preserve">Aktualisiert am  29.09.2021  durch:  04</t>
+    <t xml:space="preserve">Aktualisiert am  30.09.2021  durch:  04</t>
   </si>
   <si>
     <t xml:space="preserve">mpg  </t>
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
   <fonts count="4">
     <font>
@@ -546,10 +546,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1">
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true">
       <pane ySplit="13" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -919,10 +919,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0">
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false">
       <pane ySplit="13" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -1436,10 +1436,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0">
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false">
       <pane ySplit="13" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>

--- a/docs/reference/motor_trend_car_road_tests.xlsx
+++ b/docs/reference/motor_trend_car_road_tests.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="8" sheetId="3" state="visible" r:id="rId3"/>
@@ -39,7 +39,7 @@
     <t xml:space="preserve">http://www.statistik.zh.ch</t>
   </si>
   <si>
-    <t xml:space="preserve">Aktualisiert am  30.09.2021  durch:  04</t>
+    <t xml:space="preserve">Aktualisiert am  15.12.2021  durch:  lr</t>
   </si>
   <si>
     <t xml:space="preserve">mpg  </t>
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
   <fonts count="4">
     <font>
@@ -546,15 +546,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true">
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1">
       <pane ySplit="13" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="6.60375" hidden="0" customWidth="1"/>
     <col min="2" max="2" width="6.60375" hidden="0" customWidth="1"/>
@@ -919,15 +919,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false">
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0">
       <pane ySplit="13" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="6.60375" hidden="0" customWidth="1"/>
     <col min="2" max="2" width="6.60375" hidden="0" customWidth="1"/>
@@ -1436,15 +1436,15 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false">
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0">
       <pane ySplit="13" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="6.60375" hidden="0" customWidth="1"/>
     <col min="2" max="2" width="6.60375" hidden="0" customWidth="1"/>

--- a/docs/reference/motor_trend_car_road_tests.xlsx
+++ b/docs/reference/motor_trend_car_road_tests.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="8" sheetId="3" state="visible" r:id="rId3"/>
@@ -39,7 +39,7 @@
     <t xml:space="preserve">http://www.statistik.zh.ch</t>
   </si>
   <si>
-    <t xml:space="preserve">Aktualisiert am  15.12.2021  durch:  lr</t>
+    <t xml:space="preserve">Aktualisiert am  23.05.2022  durch:  01</t>
   </si>
   <si>
     <t xml:space="preserve">mpg  </t>
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
   <fonts count="4">
     <font>
@@ -546,15 +546,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1">
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true">
       <pane ySplit="13" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
     <col min="1" max="1" width="6.60375" hidden="0" customWidth="1"/>
     <col min="2" max="2" width="6.60375" hidden="0" customWidth="1"/>
@@ -919,15 +919,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0">
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false">
       <pane ySplit="13" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
     <col min="1" max="1" width="6.60375" hidden="0" customWidth="1"/>
     <col min="2" max="2" width="6.60375" hidden="0" customWidth="1"/>
@@ -1436,15 +1436,15 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0">
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false">
       <pane ySplit="13" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
     <col min="1" max="1" width="6.60375" hidden="0" customWidth="1"/>
     <col min="2" max="2" width="6.60375" hidden="0" customWidth="1"/>

--- a/docs/reference/motor_trend_car_road_tests.xlsx
+++ b/docs/reference/motor_trend_car_road_tests.xlsx
@@ -39,7 +39,7 @@
     <t xml:space="preserve">http://www.statistik.zh.ch</t>
   </si>
   <si>
-    <t xml:space="preserve">Aktualisiert am  23.05.2022  durch:  01</t>
+    <t xml:space="preserve">Aktualisiert am  01.02.2023  durch:  04</t>
   </si>
   <si>
     <t xml:space="preserve">mpg  </t>
@@ -549,10 +549,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true">
-      <pane ySplit="13" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
@@ -922,10 +919,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false">
-      <pane ySplit="13" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
@@ -1439,10 +1433,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false">
-      <pane ySplit="13" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>

--- a/docs/reference/motor_trend_car_road_tests.xlsx
+++ b/docs/reference/motor_trend_car_road_tests.xlsx
@@ -39,7 +39,7 @@
     <t xml:space="preserve">http://www.statistik.zh.ch</t>
   </si>
   <si>
-    <t xml:space="preserve">Aktualisiert am  01.02.2023  durch:  04</t>
+    <t xml:space="preserve">Aktualisiert am  22.02.2023  durch:  04</t>
   </si>
   <si>
     <t xml:space="preserve">mpg  </t>

--- a/docs/reference/motor_trend_car_road_tests.xlsx
+++ b/docs/reference/motor_trend_car_road_tests.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="8" sheetId="3" state="visible" r:id="rId3"/>
@@ -39,7 +39,7 @@
     <t xml:space="preserve">http://www.statistik.zh.ch</t>
   </si>
   <si>
-    <t xml:space="preserve">Aktualisiert am  23.05.2022  durch:  01</t>
+    <t xml:space="preserve">Aktualisiert am  01.03.2023  durch:  lr</t>
   </si>
   <si>
     <t xml:space="preserve">mpg  </t>
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
   <fonts count="4">
     <font>
@@ -546,15 +546,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true">
-      <pane ySplit="13" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="6.60375" hidden="0" customWidth="1"/>
     <col min="2" max="2" width="6.60375" hidden="0" customWidth="1"/>
@@ -919,15 +916,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false">
-      <pane ySplit="13" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="6.60375" hidden="0" customWidth="1"/>
     <col min="2" max="2" width="6.60375" hidden="0" customWidth="1"/>
@@ -1436,15 +1430,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false">
-      <pane ySplit="13" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="6.60375" hidden="0" customWidth="1"/>
     <col min="2" max="2" width="6.60375" hidden="0" customWidth="1"/>
